--- a/Budget/owasp-summit-2017-budget with actuals v20170516.xlsx
+++ b/Budget/owasp-summit-2017-budget with actuals v20170516.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="readme1st" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="sponsored" sheetId="6" r:id="rId9"/>
     <sheet name="funded" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
   <si>
     <t>Estimated profit</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>Catering (full)</t>
+  </si>
+  <si>
+    <t>Full week participants</t>
+  </si>
+  <si>
+    <t>tickets 24-5</t>
+  </si>
+  <si>
+    <t>tickets 24h - Wed</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F39" sqref="B33:F39"/>
     </sheetView>
   </sheetViews>
@@ -3305,15 +3314,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3379,6 +3389,31 @@
       <c r="B9">
         <f>SUM(B2:B8)</f>
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14">
+        <f>B2+B4+B5+B6+B7+B11</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
